--- a/biology/Médecine/Allergologie/Allergologie.xlsx
+++ b/biology/Médecine/Allergologie/Allergologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'allergologie est une spécialité médicale de fonction prenant en charge les maladies provoquées par une réponse spécifique anormale de l'organisme à son environnement normalement bien toléré[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allergologie est une spécialité médicale de fonction prenant en charge les maladies provoquées par une réponse spécifique anormale de l'organisme à son environnement normalement bien toléré.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Champ d'Application</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une discipline transversale[2], touchant à l'ensemble de l'organisme en tant qu'entité. En effet, les pathologies allergiques atteignent tous les organes : principalement appareil respiratoire, peau et muqueuse, séparément ou bien consécutivement voire concomitamment. L'allergologie est également impliquée dans l'allergologie médicamenteuse, professionnelle, alimentaire et aux piqûres d'insectes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une discipline transversale, touchant à l'ensemble de l'organisme en tant qu'entité. En effet, les pathologies allergiques atteignent tous les organes : principalement appareil respiratoire, peau et muqueuse, séparément ou bien consécutivement voire concomitamment. L'allergologie est également impliquée dans l'allergologie médicamenteuse, professionnelle, alimentaire et aux piqûres d'insectes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Allergologie et Environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'allergologie est une discipline qui attache beaucoup d'importance à l'environnement[3]. Elle doit en effet gérer les difficultés de relation de l'homme avec tout ce qui l'entoure et se modifie de plus en plus rapidement : la nature, la nourriture, l'habitat, etc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allergologie est une discipline qui attache beaucoup d'importance à l'environnement. Elle doit en effet gérer les difficultés de relation de l'homme avec tout ce qui l'entoure et se modifie de plus en plus rapidement : la nature, la nourriture, l'habitat, etc.
 </t>
         </is>
       </c>
@@ -575,10 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans le monde
-La discipline est pratiquée dans le monde entier, les maladies allergiques étant présentes dans tous les pays[N 1], avec une prédominance dans les pays industrialisés et ceux en voie développement[4].
-En France
-En France, la communauté "allergologique" compte 1750 médecins en cumulant les allergologues, les pneumologues et les dermatologues[5]. À partir de 2017, cette discipline est officiellement reconnue comme une discipline en France[6].
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La discipline est pratiquée dans le monde entier, les maladies allergiques étant présentes dans tous les pays[N 1], avec une prédominance dans les pays industrialisés et ceux en voie développement.
 </t>
         </is>
       </c>
@@ -604,12 +623,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Pratique de la discipline</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la communauté "allergologique" compte 1750 médecins en cumulant les allergologues, les pneumologues et les dermatologues. À partir de 2017, cette discipline est officiellement reconnue comme une discipline en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allergologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allergologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Formation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, cette discipline est une spécialité. Elle est pratiquée soit de façon exclusive(550 praticiens), soit associée à une spécialité d'organe (1200 praticiens essentiellement avec la pneumologie mais aussi la pédiatrie et l'oto-rhino-laryngologie)[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, cette discipline est une spécialité. Elle est pratiquée soit de façon exclusive(550 praticiens), soit associée à une spécialité d'organe (1200 praticiens essentiellement avec la pneumologie mais aussi la pédiatrie et l'oto-rhino-laryngologie).
 Elle est étudiée à la fin du cursus des années de Médecine, par un DES (Diplôme d’Etude Spécialisé) de 4 ans. Les études comportent une partie d'immunologie fondamentale, les maladies allergiques ayant un fondement immunologique.
 </t>
         </is>
